--- a/Data/Formato Solicitud Pago.xlsx
+++ b/Data/Formato Solicitud Pago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983EA296-BE71-4AAB-8477-5AEFC71A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B940B-2F98-45AB-A9ED-1BF3B41DA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,29 +39,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Barbara Canaves</author>
-  </authors>
-  <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nombre Completo y dos apellidos</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
@@ -168,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +171,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -261,7 +232,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -278,15 +249,15 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,7 +881,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
